--- a/data/hestia/inorganicFertiliser.xlsx
+++ b/data/hestia/inorganicFertiliser.xlsx
@@ -2542,11 +2542,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K5" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/fe8e025f-14c8-4abd-86df-1797ab26d3db</t>
-        </is>
-      </c>
+      <c r="K5" s="50" t="n"/>
       <c r="L5" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -2946,7 +2942,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K6" s="60" t="n"/>
+      <c r="K6" s="60" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/1d344632-354d-4d3f-9f6c-da038a3bd491</t>
+        </is>
+      </c>
       <c r="L6" s="61" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -3342,7 +3342,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K7" s="68" t="n"/>
+      <c r="K7" s="68" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/ef644ee9-9e11-4442-9c96-a29f8528dde7</t>
+        </is>
+      </c>
       <c r="L7" s="69" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -3738,11 +3742,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K8" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/a7f92ffa-a459-4c1c-ae8b-ffefe3804099</t>
-        </is>
-      </c>
+      <c r="K8" s="50" t="n"/>
       <c r="L8" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -4126,11 +4126,7 @@
           <t>2827.10</t>
         </is>
       </c>
-      <c r="K9" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/e03dc076-23ea-4705-b9f5-7bba07abd0ae</t>
-        </is>
-      </c>
+      <c r="K9" s="50" t="n"/>
       <c r="L9" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -5290,11 +5286,7 @@
           <t>3102.30</t>
         </is>
       </c>
-      <c r="K12" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/a498d9fb-9402-4374-b2e2-3f85f5d98f43</t>
-        </is>
-      </c>
+      <c r="K12" s="50" t="n"/>
       <c r="L12" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -6448,11 +6440,7 @@
           <t>3102.21</t>
         </is>
       </c>
-      <c r="K15" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/6f4bede8-f885-499c-8ac9-6832e35d9d16</t>
-        </is>
-      </c>
+      <c r="K15" s="50" t="n"/>
       <c r="L15" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -6830,11 +6818,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K16" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/6f4bede8-f885-499c-8ac9-6832e35d9d16</t>
-        </is>
-      </c>
+      <c r="K16" s="50" t="n"/>
       <c r="L16" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -7214,11 +7198,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K17" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/6f4bede8-f885-499c-8ac9-6832e35d9d16</t>
-        </is>
-      </c>
+      <c r="K17" s="50" t="n"/>
       <c r="L17" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -7588,11 +7568,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K18" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/6f4bede8-f885-499c-8ac9-6832e35d9d16</t>
-        </is>
-      </c>
+      <c r="K18" s="50" t="n"/>
       <c r="L18" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -10272,11 +10248,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K25" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/6f4bede8-f885-499c-8ac9-6832e35d9d16</t>
-        </is>
-      </c>
+      <c r="K25" s="50" t="n"/>
       <c r="L25" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -11038,11 +11010,7 @@
           <t>3102.60</t>
         </is>
       </c>
-      <c r="K27" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/6f4bede8-f885-499c-8ac9-6832e35d9d16</t>
-        </is>
-      </c>
+      <c r="K27" s="50" t="n"/>
       <c r="L27" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -11420,11 +11388,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K28" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/9e0c9c28-7d8f-4f18-a769-bff3a4c8c1e5</t>
-        </is>
-      </c>
+      <c r="K28" s="50" t="n"/>
       <c r="L28" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -11800,11 +11764,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K29" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/94ef9b64-be1e-4fea-a206-a952eb605628</t>
-        </is>
-      </c>
+      <c r="K29" s="50" t="n"/>
       <c r="L29" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -12186,11 +12146,7 @@
           <t>2808.00</t>
         </is>
       </c>
-      <c r="K30" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/68db7412-ba35-488b-8a45-9a9f48448522</t>
-        </is>
-      </c>
+      <c r="K30" s="50" t="n"/>
       <c r="L30" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -12572,11 +12528,7 @@
           <t>3102.10</t>
         </is>
       </c>
-      <c r="K31" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/9e0c9c28-7d8f-4f18-a769-bff3a4c8c1e5</t>
-        </is>
-      </c>
+      <c r="K31" s="50" t="n"/>
       <c r="L31" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -12954,11 +12906,7 @@
           <t>3909.10</t>
         </is>
       </c>
-      <c r="K32" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/9e0c9c28-7d8f-4f18-a769-bff3a4c8c1e5</t>
-        </is>
-      </c>
+      <c r="K32" s="50" t="n"/>
       <c r="L32" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -14086,11 +14034,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/6f4bede8-f885-499c-8ac9-6832e35d9d16</t>
-        </is>
-      </c>
       <c r="L35" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -14460,11 +14403,7 @@
           <t>3102.10</t>
         </is>
       </c>
-      <c r="K36" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/9e0c9c28-7d8f-4f18-a769-bff3a4c8c1e5</t>
-        </is>
-      </c>
+      <c r="K36" s="50" t="n"/>
       <c r="L36" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -24837,11 +24776,7 @@
           <t>3104.20</t>
         </is>
       </c>
-      <c r="K63" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/f9c6e4e7-e45c-423e-b48e-f7e140efb38e</t>
-        </is>
-      </c>
+      <c r="K63" s="50" t="n"/>
       <c r="L63" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -25241,11 +25176,7 @@
           <t>2834.21</t>
         </is>
       </c>
-      <c r="K64" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/2f6880f1-d79c-436d-9fe2-5a589d0e504b</t>
-        </is>
-      </c>
+      <c r="K64" s="50" t="n"/>
       <c r="L64" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -25633,11 +25564,7 @@
           <t>2834.21</t>
         </is>
       </c>
-      <c r="K65" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/2f6880f1-d79c-436d-9fe2-5a589d0e504b</t>
-        </is>
-      </c>
+      <c r="K65" s="50" t="n"/>
       <c r="L65" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -26785,11 +26712,7 @@
           <t>3104.30</t>
         </is>
       </c>
-      <c r="K68" s="50" t="inlineStr">
-        <is>
-          <t>https://glossary.ecoinvent.org/ids/db8488c0-a49f-4550-8bae-f2356ce1de64</t>
-        </is>
-      </c>
+      <c r="K68" s="50" t="n"/>
       <c r="L68" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
@@ -33099,7 +33022,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K84" s="50" t="n"/>
+      <c r="K84" s="50" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/9a7b015b-d091-4408-bbc1-6df501d550c9</t>
+        </is>
+      </c>
       <c r="L84" s="51" t="inlineStr">
         <is>
           <t>nitrogenContent</t>
